--- a/Test.xlsx
+++ b/Test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3293,6 +3293,120 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11395</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-36.62118</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-72.08519</v>
+      </c>
+      <c r="D52" t="n">
+        <v>313.79</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1539</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>45</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>300.92</v>
+      </c>
+      <c r="M52" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11415</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-34.11049000000001</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-70.46358000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>333.04</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1825</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>80</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>314.77</v>
+      </c>
+      <c r="M53" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10198</v>
+        <v>7635</v>
       </c>
       <c r="B2" t="n">
         <v>-38.76699</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10199</v>
+        <v>7636</v>
       </c>
       <c r="B3" t="n">
         <v>-38.62726</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10200</v>
+        <v>7637</v>
       </c>
       <c r="B4" t="n">
         <v>-38.61295</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10201</v>
+        <v>7638</v>
       </c>
       <c r="B5" t="n">
         <v>-38.61528</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10202</v>
+        <v>7639</v>
       </c>
       <c r="B6" t="n">
         <v>-38.61761</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10203</v>
+        <v>7640</v>
       </c>
       <c r="B7" t="n">
         <v>-38.61253</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10204</v>
+        <v>7641</v>
       </c>
       <c r="B8" t="n">
         <v>-38.61481</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10205</v>
+        <v>7642</v>
       </c>
       <c r="B9" t="n">
         <v>-34.1026</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10262</v>
+        <v>7699</v>
       </c>
       <c r="B10" t="n">
         <v>-38.77275</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10364</v>
+        <v>7801</v>
       </c>
       <c r="B11" t="n">
         <v>-32.80579</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10366</v>
+        <v>7803</v>
       </c>
       <c r="B12" t="n">
         <v>-34.10567</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10367</v>
+        <v>7804</v>
       </c>
       <c r="B13" t="n">
         <v>-36.90289</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10368</v>
+        <v>7805</v>
       </c>
       <c r="B14" t="n">
         <v>-37.08207</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10369</v>
+        <v>7806</v>
       </c>
       <c r="B15" t="n">
         <v>-37.48184000000001</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10370</v>
+        <v>7807</v>
       </c>
       <c r="B16" t="n">
         <v>-37.62926</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10371</v>
+        <v>7808</v>
       </c>
       <c r="B17" t="n">
         <v>-37.61314</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10372</v>
+        <v>7809</v>
       </c>
       <c r="B18" t="n">
         <v>-37.8191</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10373</v>
+        <v>7810</v>
       </c>
       <c r="B19" t="n">
         <v>-38.43872</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10374</v>
+        <v>7811</v>
       </c>
       <c r="B20" t="n">
         <v>-38.4403</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10375</v>
+        <v>7812</v>
       </c>
       <c r="B21" t="n">
         <v>-38.681</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10376</v>
+        <v>7813</v>
       </c>
       <c r="B22" t="n">
         <v>-38.68261</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10377</v>
+        <v>7814</v>
       </c>
       <c r="B23" t="n">
         <v>-39.36544</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10378</v>
+        <v>7815</v>
       </c>
       <c r="B24" t="n">
         <v>-39.53728</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10379</v>
+        <v>7816</v>
       </c>
       <c r="B25" t="n">
         <v>-39.86305</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10380</v>
+        <v>7817</v>
       </c>
       <c r="B26" t="n">
         <v>-42.46738</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10381</v>
+        <v>7818</v>
       </c>
       <c r="B27" t="n">
         <v>-45.57846</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10388</v>
+        <v>7825</v>
       </c>
       <c r="B28" t="n">
         <v>-17.49491</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10389</v>
+        <v>7826</v>
       </c>
       <c r="B29" t="n">
         <v>-23.82403</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10938</v>
+        <v>8375</v>
       </c>
       <c r="B30" t="n">
         <v>-38.63419</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10939</v>
+        <v>8376</v>
       </c>
       <c r="B31" t="n">
         <v>-38.63800000000001</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10940</v>
+        <v>8377</v>
       </c>
       <c r="B32" t="n">
         <v>-38.62299</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10941</v>
+        <v>8378</v>
       </c>
       <c r="B33" t="n">
         <v>-38.6268</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10942</v>
+        <v>8379</v>
       </c>
       <c r="B34" t="n">
         <v>-38.63065</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10943</v>
+        <v>8380</v>
       </c>
       <c r="B35" t="n">
         <v>-38.60796</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10944</v>
+        <v>8381</v>
       </c>
       <c r="B36" t="n">
         <v>-38.61178</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10945</v>
+        <v>8382</v>
       </c>
       <c r="B37" t="n">
         <v>-38.62315</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10946</v>
+        <v>8383</v>
       </c>
       <c r="B38" t="n">
         <v>-38.62685</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10947</v>
+        <v>8384</v>
       </c>
       <c r="B39" t="n">
         <v>-38.63055</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10948</v>
+        <v>8385</v>
       </c>
       <c r="B40" t="n">
         <v>-38.61193</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10949</v>
+        <v>8386</v>
       </c>
       <c r="B41" t="n">
         <v>-38.61565</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10950</v>
+        <v>8387</v>
       </c>
       <c r="B42" t="n">
         <v>-38.40162</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10951</v>
+        <v>8388</v>
       </c>
       <c r="B43" t="n">
         <v>-38.22697</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10952</v>
+        <v>8389</v>
       </c>
       <c r="B44" t="n">
         <v>-37.87266</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10953</v>
+        <v>8390</v>
       </c>
       <c r="B45" t="n">
         <v>-37.87635</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10954</v>
+        <v>8391</v>
       </c>
       <c r="B46" t="n">
         <v>-36.74922</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10955</v>
+        <v>8392</v>
       </c>
       <c r="B47" t="n">
         <v>-35.57145</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10966</v>
+        <v>8403</v>
       </c>
       <c r="B48" t="n">
         <v>-34.11642</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11111</v>
+        <v>8548</v>
       </c>
       <c r="B49" t="n">
         <v>-37.08687</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11112</v>
+        <v>8549</v>
       </c>
       <c r="B50" t="n">
         <v>-37.08869</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11113</v>
+        <v>8550</v>
       </c>
       <c r="B51" t="n">
         <v>-37.09168</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11395</v>
+        <v>8832</v>
       </c>
       <c r="B52" t="n">
         <v>-36.62118</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11415</v>
+        <v>8852</v>
       </c>
       <c r="B53" t="n">
         <v>-34.11049000000001</v>
@@ -3402,6 +3402,918 @@
         </is>
       </c>
       <c r="O53" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9211</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-38.45922</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-72.70953</v>
+      </c>
+      <c r="D54" t="n">
+        <v>330.46</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>342</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>100</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>280.91</v>
+      </c>
+      <c r="M54" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9212</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-38.43951</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-72.70241999999999</v>
+      </c>
+      <c r="D55" t="n">
+        <v>302.4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>342</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>30</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>274.52</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>9213</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-37.96814000000001</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-72.4481</v>
+      </c>
+      <c r="D56" t="n">
+        <v>311.63</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>342</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>83</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>287.61</v>
+      </c>
+      <c r="M56" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>9214</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-37.96985</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-72.45957</v>
+      </c>
+      <c r="D57" t="n">
+        <v>325.18</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>342</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>288.21</v>
+      </c>
+      <c r="M57" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9215</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-37.83835</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-72.19933</v>
+      </c>
+      <c r="D58" t="n">
+        <v>370.91</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>342</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>100</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>294.66</v>
+      </c>
+      <c r="M58" t="n">
+        <v>123.29</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9216</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-37.84013</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-72.21096</v>
+      </c>
+      <c r="D59" t="n">
+        <v>433.98</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>342</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>100</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>307.31</v>
+      </c>
+      <c r="M59" t="n">
+        <v>540.86</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9217</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-37.84189</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-72.22254000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>305.56</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>342</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>65</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>9218</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-37.83205</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-72.20683000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>344</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>342</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>100</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>291.23</v>
+      </c>
+      <c r="M61" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>9219</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-37.83379</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-72.2184</v>
+      </c>
+      <c r="D62" t="n">
+        <v>312.3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>342</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>85</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>287.95</v>
+      </c>
+      <c r="M62" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>9220</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-34.10946</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-70.45687</v>
+      </c>
+      <c r="D63" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>342</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>99</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>288.73</v>
+      </c>
+      <c r="M63" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9300</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-34.106</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-70.45</v>
+      </c>
+      <c r="D64" t="n">
+        <v>308.74</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>527</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>75</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>287.12</v>
+      </c>
+      <c r="M64" t="n">
+        <v>33.39</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>9301</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-37.92424</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-72.47355999999999</v>
+      </c>
+      <c r="D65" t="n">
+        <v>342.51</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>527</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>100</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>286.98</v>
+      </c>
+      <c r="M65" t="n">
+        <v>156.21</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>9302</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-37.92958</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-72.44899000000001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>347.35</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>527</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>100</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>288.56</v>
+      </c>
+      <c r="M66" t="n">
+        <v>184.19</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>9303</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-37.92014</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-72.47963</v>
+      </c>
+      <c r="D67" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>527</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>92</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>285.43</v>
+      </c>
+      <c r="M67" t="n">
+        <v>49.58</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>9304</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-37.92564</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-72.4551</v>
+      </c>
+      <c r="D68" t="n">
+        <v>360.84</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>527</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>100</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>289.29</v>
+      </c>
+      <c r="M68" t="n">
+        <v>283.11</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>MODIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>9305</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-24.79346</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-83.68741</v>
+      </c>
+      <c r="D69" t="n">
+        <v>310.44</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>701</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>71</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>6.1NRT</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>280.66</v>
+      </c>
+      <c r="M69" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
         <is>
           <t>MODIS</t>
         </is>
